--- a/compare_models/other_models.xlsx
+++ b/compare_models/other_models.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1E27B-E6BB-451F-B792-722CDD224F38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3B5787-6860-4390-BF8F-5A3286B4F5B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1605" windowWidth="16245" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="720" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
   <si>
     <t>MAE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>t=12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +622,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -647,68 +651,20 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>11.676</v>
-      </c>
-      <c r="F13">
-        <v>9.5402000000000005</v>
-      </c>
-      <c r="H13">
-        <v>10.212400000000001</v>
-      </c>
-      <c r="L13">
-        <v>10.4108</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>35.743499999999997</v>
-      </c>
-      <c r="F14">
-        <v>28.130600000000001</v>
-      </c>
-      <c r="H14">
-        <v>30.1966</v>
-      </c>
-      <c r="L14">
-        <v>28.0961</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
-        <v>56.198300000000003</v>
-      </c>
-      <c r="F15">
-        <v>44.754899999999999</v>
-      </c>
-      <c r="H15">
-        <v>45.130699999999997</v>
-      </c>
-      <c r="L15">
-        <v>39.720399999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2E-3</v>
-      </c>
-      <c r="F16">
-        <v>14.667</v>
-      </c>
-      <c r="H16">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="L16">
-        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -736,1032 +692,1126 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>7.3936999999999999</v>
-      </c>
-      <c r="G18">
-        <v>12.0623</v>
-      </c>
-      <c r="K18">
-        <v>8.7720000000000002</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>19.819099999999999</v>
-      </c>
-      <c r="G19">
-        <v>25.416499999999999</v>
-      </c>
-      <c r="K19">
-        <v>24.2834</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
-        <v>28.820399999999999</v>
-      </c>
-      <c r="G20">
-        <v>33.367199999999997</v>
-      </c>
-      <c r="K20">
-        <v>35.820500000000003</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="G21">
-        <v>78.084999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>11.575699999999999</v>
-      </c>
-      <c r="F24">
-        <v>9.5440000000000005</v>
-      </c>
-      <c r="H24">
-        <v>10.204599999999999</v>
-      </c>
-      <c r="L24">
-        <v>10.624499999999999</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>35.382199999999997</v>
+        <v>11.676</v>
       </c>
       <c r="F25">
-        <v>28.179300000000001</v>
+        <v>9.5402000000000005</v>
       </c>
       <c r="H25">
-        <v>30.3416</v>
+        <v>10.212400000000001</v>
       </c>
       <c r="L25">
-        <v>28.810300000000002</v>
+        <v>10.4108</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>55.600700000000003</v>
+        <v>35.743499999999997</v>
       </c>
       <c r="F26">
-        <v>44.819400000000002</v>
+        <v>28.130600000000001</v>
       </c>
       <c r="H26">
-        <v>45.822000000000003</v>
+        <v>30.1966</v>
       </c>
       <c r="L26">
-        <v>41.703499999999998</v>
+        <v>28.0961</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>56.198300000000003</v>
+      </c>
+      <c r="F27">
+        <v>44.754899999999999</v>
+      </c>
+      <c r="H27">
+        <v>45.130699999999997</v>
+      </c>
+      <c r="L27">
+        <v>39.720399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F27">
-        <v>16.532</v>
-      </c>
-      <c r="H27">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L27">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="B28">
+        <v>2E-3</v>
+      </c>
+      <c r="F28">
+        <v>14.667</v>
+      </c>
+      <c r="H28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>7.3841000000000001</v>
-      </c>
-      <c r="G29">
-        <v>12.112500000000001</v>
-      </c>
-      <c r="K29">
-        <v>8.8812999999999995</v>
-      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>19.807500000000001</v>
+        <v>7.3936999999999999</v>
       </c>
       <c r="G30">
-        <v>25.532900000000001</v>
+        <v>12.0623</v>
       </c>
       <c r="K30">
-        <v>24.319600000000001</v>
+        <v>8.7720000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>28.791</v>
+        <v>19.819099999999999</v>
       </c>
       <c r="G31">
-        <v>33.503100000000003</v>
+        <v>25.416499999999999</v>
       </c>
       <c r="K31">
-        <v>35.643700000000003</v>
+        <v>24.2834</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>28.820399999999999</v>
+      </c>
+      <c r="G32">
+        <v>33.367199999999997</v>
+      </c>
+      <c r="K32">
+        <v>35.820500000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B32">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="G32">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="B33">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G33">
+        <v>78.084999999999994</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>11.6617</v>
-      </c>
-      <c r="F35">
-        <v>9.5634999999999994</v>
-      </c>
-      <c r="H35">
-        <v>10.1838</v>
-      </c>
-      <c r="L35">
-        <v>9.9275000000000002</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>34.878399999999999</v>
+        <v>11.575699999999999</v>
       </c>
       <c r="F36">
-        <v>28.238199999999999</v>
+        <v>9.5440000000000005</v>
       </c>
       <c r="H36">
-        <v>29.953900000000001</v>
+        <v>10.204599999999999</v>
       </c>
       <c r="L36">
-        <v>27.378799999999998</v>
+        <v>10.624499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>54.732100000000003</v>
+        <v>35.382199999999997</v>
       </c>
       <c r="F37">
-        <v>44.967500000000001</v>
+        <v>28.179300000000001</v>
       </c>
       <c r="H37">
-        <v>45.091200000000001</v>
+        <v>30.3416</v>
       </c>
       <c r="L37">
-        <v>38.955399999999997</v>
+        <v>28.810300000000002</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>55.600700000000003</v>
+      </c>
+      <c r="F38">
+        <v>44.819400000000002</v>
+      </c>
+      <c r="H38">
+        <v>45.822000000000003</v>
+      </c>
+      <c r="L38">
+        <v>41.703499999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B38">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F38">
-        <v>19.542999999999999</v>
-      </c>
-      <c r="H38">
+      <c r="B39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F39">
+        <v>16.532</v>
+      </c>
+      <c r="H39">
         <v>1.2E-2</v>
       </c>
-      <c r="L38">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="L39">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>7.3932000000000002</v>
-      </c>
-      <c r="G40">
-        <v>12.128399999999999</v>
-      </c>
-      <c r="K40">
-        <v>8.8917999999999999</v>
-      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>19.809000000000001</v>
+        <v>7.3841000000000001</v>
       </c>
       <c r="G41">
-        <v>25.625399999999999</v>
+        <v>12.112500000000001</v>
       </c>
       <c r="K41">
-        <v>24.250499999999999</v>
+        <v>8.8812999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>28.7849</v>
+        <v>19.807500000000001</v>
       </c>
       <c r="G42">
-        <v>33.592500000000001</v>
+        <v>25.532900000000001</v>
       </c>
       <c r="K42">
-        <v>35.620600000000003</v>
+        <v>24.319600000000001</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>28.791</v>
+      </c>
+      <c r="G43">
+        <v>33.503100000000003</v>
+      </c>
+      <c r="K43">
+        <v>35.643700000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B43">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="G43">
-        <v>103.167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="B44">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="G44">
+        <v>90.4</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>11.642099999999999</v>
-      </c>
-      <c r="F46">
-        <v>9.6013000000000002</v>
-      </c>
-      <c r="H46">
-        <v>10.1265</v>
-      </c>
-      <c r="L46">
-        <v>10.255699999999999</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>35.513800000000003</v>
+        <v>11.6617</v>
       </c>
       <c r="F47">
-        <v>28.342500000000001</v>
+        <v>9.5634999999999994</v>
       </c>
       <c r="H47">
-        <v>29.763300000000001</v>
+        <v>10.1838</v>
       </c>
       <c r="L47">
-        <v>27.851199999999999</v>
+        <v>9.9275000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
-        <v>55.839300000000001</v>
+        <v>34.878399999999999</v>
       </c>
       <c r="F48">
-        <v>45.227499999999999</v>
+        <v>28.238199999999999</v>
       </c>
       <c r="H48">
-        <v>44.4953</v>
+        <v>29.953900000000001</v>
       </c>
       <c r="L48">
-        <v>39.438099999999999</v>
+        <v>27.378799999999998</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>54.732100000000003</v>
+      </c>
+      <c r="F49">
+        <v>44.967500000000001</v>
+      </c>
+      <c r="H49">
+        <v>45.091200000000001</v>
+      </c>
+      <c r="L49">
+        <v>38.955399999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F49">
-        <v>21.16</v>
-      </c>
-      <c r="H49">
+      <c r="F50">
+        <v>19.542999999999999</v>
+      </c>
+      <c r="H50">
         <v>1.2E-2</v>
       </c>
-      <c r="L49">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="L50">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>7.3935000000000004</v>
-      </c>
-      <c r="G51">
-        <v>12.135899999999999</v>
-      </c>
-      <c r="K51">
-        <v>8.8964999999999996</v>
-      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>19.819299999999998</v>
+        <v>7.3932000000000002</v>
       </c>
       <c r="G52">
-        <v>25.730699999999999</v>
+        <v>12.128399999999999</v>
       </c>
       <c r="K52">
-        <v>24.174900000000001</v>
+        <v>8.8917999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>28.7849</v>
+        <v>19.809000000000001</v>
       </c>
       <c r="G53">
-        <v>33.728700000000003</v>
+        <v>25.625399999999999</v>
       </c>
       <c r="K53">
-        <v>35.392699999999998</v>
+        <v>24.250499999999999</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>28.7849</v>
+      </c>
+      <c r="G54">
+        <v>33.592500000000001</v>
+      </c>
+      <c r="K54">
+        <v>35.620600000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B54">
-        <v>0.7</v>
-      </c>
-      <c r="G54">
-        <v>115.623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="B55">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="G55">
+        <v>103.167</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57">
-        <v>11.666</v>
-      </c>
-      <c r="F57">
-        <v>9.6145999999999994</v>
-      </c>
-      <c r="H57">
-        <v>10.0573</v>
-      </c>
-      <c r="L57">
-        <v>10.348000000000001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>35.064599999999999</v>
+        <v>11.642099999999999</v>
       </c>
       <c r="F58">
-        <v>28.394300000000001</v>
+        <v>9.6013000000000002</v>
       </c>
       <c r="H58">
-        <v>29.5092</v>
+        <v>10.1265</v>
       </c>
       <c r="L58">
-        <v>28.3826</v>
+        <v>10.255699999999999</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>55.067999999999998</v>
+        <v>35.513800000000003</v>
       </c>
       <c r="F59">
-        <v>45.414499999999997</v>
+        <v>28.342500000000001</v>
       </c>
       <c r="H59">
-        <v>44.254100000000001</v>
+        <v>29.763300000000001</v>
       </c>
       <c r="L59">
-        <v>40.346899999999998</v>
+        <v>27.851199999999999</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>55.839300000000001</v>
+      </c>
+      <c r="F60">
+        <v>45.227499999999999</v>
+      </c>
+      <c r="H60">
+        <v>44.4953</v>
+      </c>
+      <c r="L60">
+        <v>39.438099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>4</v>
       </c>
-      <c r="B60">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F60">
-        <v>23.007000000000001</v>
-      </c>
-      <c r="H60">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="L60">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="B61">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F61">
+        <v>21.16</v>
+      </c>
+      <c r="H61">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1" t="s">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>7.3962000000000003</v>
-      </c>
-      <c r="G62">
-        <v>12.222899999999999</v>
-      </c>
-      <c r="K62">
-        <v>8.7345000000000006</v>
-      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>19.810199999999998</v>
+        <v>7.3935000000000004</v>
       </c>
       <c r="G63">
-        <v>25.857299999999999</v>
+        <v>12.135899999999999</v>
       </c>
       <c r="K63">
-        <v>24.1065</v>
+        <v>8.8964999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>28.7639</v>
+        <v>19.819299999999998</v>
       </c>
       <c r="G64">
-        <v>33.884799999999998</v>
+        <v>25.730699999999999</v>
       </c>
       <c r="K64">
-        <v>35.7057</v>
+        <v>24.174900000000001</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>28.7849</v>
+      </c>
+      <c r="G65">
+        <v>33.728700000000003</v>
+      </c>
+      <c r="K65">
+        <v>35.392699999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B65">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="G65">
-        <v>128.65199999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="B66">
+        <v>0.7</v>
+      </c>
+      <c r="G66">
+        <v>115.623</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>11.857200000000001</v>
-      </c>
-      <c r="F68">
-        <v>9.6312999999999995</v>
-      </c>
-      <c r="H68">
-        <v>10.043200000000001</v>
-      </c>
-      <c r="L68">
-        <v>10.3269</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>35.5047</v>
+        <v>11.666</v>
       </c>
       <c r="F69">
-        <v>28.470400000000001</v>
+        <v>9.6145999999999994</v>
       </c>
       <c r="H69">
-        <v>29.633299999999998</v>
+        <v>10.0573</v>
       </c>
       <c r="L69">
-        <v>28.275200000000002</v>
+        <v>10.348000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>55.797400000000003</v>
+        <v>35.064599999999999</v>
       </c>
       <c r="F70">
-        <v>45.6312</v>
+        <v>28.394300000000001</v>
       </c>
       <c r="H70">
-        <v>44.488999999999997</v>
+        <v>29.5092</v>
       </c>
       <c r="L70">
-        <v>40.102899999999998</v>
+        <v>28.3826</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>55.067999999999998</v>
+      </c>
+      <c r="F71">
+        <v>45.414499999999997</v>
+      </c>
+      <c r="H71">
+        <v>44.254100000000001</v>
+      </c>
+      <c r="L71">
+        <v>40.346899999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B71">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F71">
-        <v>25.26</v>
-      </c>
-      <c r="H71">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L71">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="B72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F72">
+        <v>23.007000000000001</v>
+      </c>
+      <c r="H72">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L72">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1" t="s">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>7.3935000000000004</v>
-      </c>
-      <c r="G73">
-        <v>12.293200000000001</v>
-      </c>
-      <c r="K73">
-        <v>8.6567000000000007</v>
-      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>19.809100000000001</v>
+        <v>7.3962000000000003</v>
       </c>
       <c r="G74">
-        <v>25.997199999999999</v>
+        <v>12.222899999999999</v>
       </c>
       <c r="K74">
-        <v>23.991700000000002</v>
+        <v>8.7345000000000006</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75">
-        <v>28.767600000000002</v>
+        <v>19.810199999999998</v>
       </c>
       <c r="G75">
-        <v>34.059399999999997</v>
+        <v>25.857299999999999</v>
       </c>
       <c r="K75">
-        <v>35.494</v>
+        <v>24.1065</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>28.7639</v>
+      </c>
+      <c r="G76">
+        <v>33.884799999999998</v>
+      </c>
+      <c r="K76">
+        <v>35.7057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B76">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="G76">
-        <v>141.667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="B77">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G77">
+        <v>128.65199999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>11.857200000000001</v>
+      </c>
+      <c r="F80">
+        <v>9.6312999999999995</v>
+      </c>
+      <c r="H80">
+        <v>10.043200000000001</v>
+      </c>
+      <c r="L80">
+        <v>10.3269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>35.5047</v>
+      </c>
+      <c r="F81">
+        <v>28.470400000000001</v>
+      </c>
+      <c r="H81">
+        <v>29.633299999999998</v>
+      </c>
+      <c r="L81">
+        <v>28.275200000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>55.797400000000003</v>
+      </c>
+      <c r="F82">
+        <v>45.6312</v>
+      </c>
+      <c r="H82">
+        <v>44.488999999999997</v>
+      </c>
+      <c r="L82">
+        <v>40.102899999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="B83">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F83">
+        <v>25.26</v>
+      </c>
+      <c r="H83">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L83">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1" t="s">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>7.3935000000000004</v>
+      </c>
+      <c r="G85">
+        <v>12.293200000000001</v>
+      </c>
+      <c r="K85">
+        <v>8.6567000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>19.809100000000001</v>
+      </c>
+      <c r="G86">
+        <v>25.997199999999999</v>
+      </c>
+      <c r="K86">
+        <v>23.991700000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>28.767600000000002</v>
+      </c>
+      <c r="G87">
+        <v>34.059399999999997</v>
+      </c>
+      <c r="K87">
+        <v>35.494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>4</v>
       </c>
+      <c r="B88">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G88">
+        <v>141.667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
+  <mergeCells count="63">
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:K12"/>
@@ -1776,6 +1826,55 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="K95:N95"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
